--- a/data/trans_camb/P74B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.032385851580603</v>
+        <v>1.803239660110883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.067827653952163</v>
+        <v>-2.08929085284628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-34.65976835432729</v>
+        <v>-34.0176586765652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-27.66067279615292</v>
+        <v>-26.89453196911808</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.906459632356971</v>
+        <v>-4.985472419585151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.750889708331375</v>
+        <v>-4.294752030365383</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.16962628020422</v>
+        <v>12.69990165876096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.988880348121461</v>
+        <v>7.559862285400357</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-16.09566743263692</v>
+        <v>-16.51635899158677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-10.53993159252494</v>
+        <v>-9.55657210981107</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.80697748496975</v>
+        <v>6.838237945320855</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.916249440531</v>
+        <v>7.70974927188473</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1615905214416906</v>
+        <v>0.1259016155097264</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1969781773072315</v>
+        <v>-0.1948837900101301</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3889672211222707</v>
+        <v>-0.3951230799082078</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3113357719003861</v>
+        <v>-0.3085090794818343</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1384800138952464</v>
+        <v>-0.1449672118670819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1175450983925798</v>
+        <v>-0.1231990691416043</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.739429342854892</v>
+        <v>1.932841967758536</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.002165799539337</v>
+        <v>1.083865118603352</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1971740818762318</v>
+        <v>-0.1992892152280545</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.131470573795918</v>
+        <v>-0.1181849983697087</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.233265507080274</v>
+        <v>0.2193497007935529</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2535755363279671</v>
+        <v>0.2535789114459164</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2474301630594649</v>
+        <v>0.2126224196814125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6903435992148226</v>
+        <v>0.912968000483745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-28.13546132791068</v>
+        <v>-27.53860813363508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-29.83947774316376</v>
+        <v>-29.41823788512744</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.798029399558852</v>
+        <v>-1.190342417247795</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.1564901476412919</v>
+        <v>-0.6788792967726156</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.919396296455142</v>
+        <v>8.977071235269529</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.66417038373889</v>
+        <v>9.427568554237938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-12.24757595531328</v>
+        <v>-11.60784904509898</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-13.89302298152432</v>
+        <v>-13.00614325939161</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.065042731874486</v>
+        <v>8.820088774947763</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.32011819668499</v>
+        <v>9.943251872624504</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04457650385072761</v>
+        <v>0.00187145327088694</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06452662550684023</v>
+        <v>0.05546964750978372</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3196648315860571</v>
+        <v>-0.3105102234041305</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3354701859199826</v>
+        <v>-0.3316289643628276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05462447141695057</v>
+        <v>-0.03856178970084534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.003440825293870279</v>
+        <v>-0.02427848557118103</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.408952376474591</v>
+        <v>1.336976706348047</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.517258357516317</v>
+        <v>1.452475243929221</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1492505667506386</v>
+        <v>-0.1411632700160731</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1685911226371014</v>
+        <v>-0.1611902853593175</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3435217095193482</v>
+        <v>0.3204097752908499</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3834795790167101</v>
+        <v>0.3604940040725926</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.298422989193175</v>
+        <v>0.736048739717153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.011756332131178</v>
+        <v>-1.442959538637945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.10462629008488</v>
+        <v>-21.09615589526069</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-26.74157445187963</v>
+        <v>-25.59520820218241</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.508840967810204</v>
+        <v>1.915299381983068</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.870257654930262</v>
+        <v>-2.983684019853921</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.5307285763755</v>
+        <v>10.57757645180447</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.673492660518855</v>
+        <v>6.528952412764985</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.966634704628643</v>
+        <v>-1.531356559673551</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.293800640520354</v>
+        <v>-6.083486125732706</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.69878955398209</v>
+        <v>13.79158526642649</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.327758533495473</v>
+        <v>8.96266681733799</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1042745102929706</v>
+        <v>0.05368229993565606</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1908693606569219</v>
+        <v>-0.2295469720049322</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2531033022952695</v>
+        <v>-0.2489722409727703</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3161466837675709</v>
+        <v>-0.3133279010936643</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05123898651588574</v>
+        <v>0.05788179935352007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.103351666557419</v>
+        <v>-0.1065984298435967</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.083324951770964</v>
+        <v>3.125228263510786</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.099321402941715</v>
+        <v>2.040880243131838</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01395514958284237</v>
+        <v>-0.02058895196099913</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.08517303125844659</v>
+        <v>-0.0851595542572067</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6105154886334463</v>
+        <v>0.6063196020815735</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4120316433191518</v>
+        <v>0.3914181768902804</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.188874176220444</v>
+        <v>-1.25070608755768</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.797153087029124</v>
+        <v>3.859483350357563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.27336547921436</v>
+        <v>-11.48530182331873</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-18.64851693436191</v>
+        <v>-17.47517827470664</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.235651374958399</v>
+        <v>-0.5476466783402953</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.911115450305937</v>
+        <v>-2.319837895088151</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.035286057346788</v>
+        <v>7.948933767039773</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.04163275029779</v>
+        <v>13.12726253341714</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.858267641829284</v>
+        <v>5.618854403169414</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.465445477956171</v>
+        <v>-0.1098576238359806</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.64936621776611</v>
+        <v>10.72164443177942</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.524876245012127</v>
+        <v>8.853353567835805</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1224260326946809</v>
+        <v>-0.1238363384270832</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3498896481174936</v>
+        <v>0.3279115208879226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1444377149196861</v>
+        <v>-0.1345805845634115</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2217574246434693</v>
+        <v>-0.2092205991730839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03483565692653202</v>
+        <v>-0.01338690369739069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05554057334828764</v>
+        <v>-0.06074877531600178</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.400286780579371</v>
+        <v>1.320618562933553</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.27312765333795</v>
+        <v>2.203839977338022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05118762000977914</v>
+        <v>0.07505892951002877</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02091051183111216</v>
+        <v>-0.008087018957565369</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3543198090820311</v>
+        <v>0.3546310565493533</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3086947944732213</v>
+        <v>0.2931832600135032</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.590709354987594</v>
+        <v>2.577593440924996</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.730589310541826</v>
+        <v>2.470206977722226</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.4782350497656</v>
+        <v>-19.18628273635657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.14928753904784</v>
+        <v>-21.35775448904167</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.581315608124065</v>
+        <v>1.585378498726788</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5742528020476774</v>
+        <v>0.6613155695823716</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.427830559759756</v>
+        <v>7.375497081499015</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.173830043396075</v>
+        <v>7.023418173726522</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.16093471205363</v>
+        <v>-10.60902133358553</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.24097643204549</v>
+        <v>-12.21203976366374</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.400297425403002</v>
+        <v>7.452161389958648</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.282857135794797</v>
+        <v>6.529553113976815</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2895534197127685</v>
+        <v>0.3023909270040445</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2997282588130495</v>
+        <v>0.2881899941817123</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2314411099316071</v>
+        <v>-0.2247801865012078</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2502378926641773</v>
+        <v>-0.2502259981051022</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05169966826170003</v>
+        <v>0.0508656471275783</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01864411514973913</v>
+        <v>0.02097000601829263</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.165610797628894</v>
+        <v>1.123290734967819</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.086669515173662</v>
+        <v>1.076733949511451</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1265163409869503</v>
+        <v>-0.1304705232653952</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1510326478983651</v>
+        <v>-0.1504977650063318</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2596903223570888</v>
+        <v>0.2579337663948753</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2197890106933617</v>
+        <v>0.2252158862372846</v>
       </c>
     </row>
     <row r="34">
